--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16785" windowHeight="11160"/>
+    <workbookView windowWidth="17505" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>请求参数(get)</t>
   </si>
   <si>
-    <t>提交数据（post）</t>
+    <t>提交数据(post)</t>
   </si>
   <si>
     <t>取值方式</t>
@@ -167,8 +167,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -194,6 +194,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,45 +215,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,62 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,13 +339,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,25 +417,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,133 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,21 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,8 +550,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -576,22 +563,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,13 +592,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,130 +638,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,13 +776,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,10 +1109,13 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1346,14 +1349,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
-      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
+      <formula1>"get,post"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
-      <formula1>"get,post"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
+      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3">
       <formula1>"是,否"</formula1>
